--- a/5.Txt/上位机协议.xlsx
+++ b/5.Txt/上位机协议.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>单片机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +78,22 @@
   </si>
   <si>
     <t>u16位置 u8 速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置占空比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XAA02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +146,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +526,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,22 +535,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -638,12 +658,24 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
